--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2321.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2321.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>4.052991172923115</v>
+        <v>1.470362067222595</v>
       </c>
       <c r="B1">
-        <v>1.822336261650111</v>
+        <v>1.725765109062195</v>
       </c>
       <c r="C1">
-        <v>1.115780959675903</v>
+        <v>1.641141414642334</v>
       </c>
       <c r="D1">
-        <v>0.9450219141902639</v>
+        <v>1.53488028049469</v>
       </c>
       <c r="E1">
-        <v>0.8913945273556934</v>
+        <v>1.082818269729614</v>
       </c>
     </row>
   </sheetData>
